--- a/Outputs/5. Budget constrained/Output Files/2000000/Output_3_28.xlsx
+++ b/Outputs/5. Budget constrained/Output Files/2000000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2289549.639719028</v>
+        <v>2262607.561078961</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>179.4476041204658</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.96575664273649</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>47.50320101340394</v>
+        <v>98.0920354687541</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.90848140332574</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>110.1458031968981</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938797</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941242</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>226.5248619936183</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>39.11561436815759</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.2142598265032</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>169.8277167599788</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>26.97444673954898</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>118.2422920270592</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>163.9563538534672</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056517</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>96.84207451769356</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>98.39122057765411</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896555</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801231</v>
       </c>
       <c r="F31" t="n">
-        <v>38.78243893493283</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.71057173897927</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523594</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>111.876523215809</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373815</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1603.407129497228</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1603.407129497228</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1603.407129497228</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1217.618876898984</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>806.6329721093766</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>388.6691640075635</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497228</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>229.6312428658945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>229.6312428658945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>229.6312428658945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.851790143458</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>1270.889273203047</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>912.6235745962961</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="E5" t="n">
-        <v>526.8353219980518</v>
+        <v>905.1298747452308</v>
       </c>
       <c r="F5" t="n">
-        <v>115.8494172084442</v>
+        <v>898.1843739960274</v>
       </c>
       <c r="G5" t="n">
-        <v>101.9260131470351</v>
+        <v>480.2205658942142</v>
       </c>
       <c r="H5" t="n">
-        <v>101.9260131470351</v>
+        <v>153.0258459302171</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>106.5777702969935</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822952</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882541</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757901</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>576.1872736775458</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>165.2013688879383</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>544.6416868225887</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C13" t="n">
-        <v>544.6416868225887</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>955.103143565574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>726.2901516528284</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>726.2901516528284</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.2901516528284</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247862</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247862</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247862</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0304288687223</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>447.040877970705</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,19 +5595,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1327.373122315499</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1038.244483529058</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>783.5599953231706</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>494.14282528621</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,52 +5750,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834692</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028586</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>385.5899330013839</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028586</v>
+        <v>385.5899330013839</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028586</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6069,22 +6069,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>434.328596068372</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6145,13 +6145,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241962</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471196</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1133.383781833589</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765189</v>
+        <v>1133.383781833589</v>
       </c>
       <c r="V25" t="n">
-        <v>531.397718270632</v>
+        <v>1133.383781833589</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336714</v>
+        <v>843.966611796629</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986116</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986117</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,7 +6221,7 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6230,46 +6230,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>626.4287152214132</v>
+        <v>195.0373687508857</v>
       </c>
       <c r="C28" t="n">
-        <v>626.4287152214132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>476.3120758090775</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.210845262961</v>
+        <v>933.2366688293937</v>
       </c>
       <c r="W28" t="n">
-        <v>1075.210845262961</v>
+        <v>643.8194987924331</v>
       </c>
       <c r="X28" t="n">
-        <v>847.2212943649433</v>
+        <v>415.8299478944158</v>
       </c>
       <c r="Y28" t="n">
-        <v>626.4287152214132</v>
+        <v>195.0373687508857</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6482,13 +6482,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163771</v>
+        <v>491.557554709496</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698409</v>
+        <v>378.3822370629597</v>
       </c>
       <c r="D31" t="n">
-        <v>491.3888261698409</v>
+        <v>284.0264629319945</v>
       </c>
       <c r="E31" t="n">
-        <v>399.2365978688185</v>
+        <v>191.874234630972</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>191.874234630972</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>191.874234630972</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864675</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933496</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667501</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962043</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661996</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>902.6804289818897</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365246</v>
+        <v>730.4517433652429</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.451743365246</v>
+        <v>617.4451542583652</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,7 +6713,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506736</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083216</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504524</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6941,46 +6941,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7072,31 +7072,31 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7309,25 +7309,25 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,13 +7336,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7363,16 +7363,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010318</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7397,64 +7397,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.088769018224</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7792,7 +7792,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,10 +7828,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>165.9802687929768</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622806</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599077</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>50.62661940943656</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10191,28 +10191,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>76.43196988338565</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>148.1350559470642</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>392.1113620226438</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949951</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,13 +11148,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>272.8719470256806</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715674</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>59.99813634297266</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>158.8051956154457</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3087385100877759</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>51.71984429841046</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>259.2629056590284</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>100.3423613250356</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.591207204922</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>70.40474658093422</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>48.04274206891506</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>51.43535245944136</v>
+        <v>90.21779139437439</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571514</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>51.50487350772892</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-1.264766069652978e-12</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454835</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842547.8393454839</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>875713.3023213622</v>
+        <v>875713.3023213621</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327926</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.6836327926</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327926</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.6836327927</v>
       </c>
-      <c r="H2" t="n">
-        <v>547440.6836327928</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327928</v>
-      </c>
       <c r="J2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.683632792</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833786</v>
+        <v>569550.9922833784</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049978</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049978</v>
       </c>
       <c r="O2" t="n">
         <v>574729.2389049983</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049978</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284546</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086707</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284544</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163259.7114202398</v>
+        <v>166707.1609912358</v>
       </c>
       <c r="C4" t="n">
-        <v>163259.7114202398</v>
+        <v>166707.1609912358</v>
       </c>
       <c r="D4" t="n">
-        <v>163259.7114202398</v>
+        <v>166707.1609912358</v>
       </c>
       <c r="E4" t="n">
-        <v>20264.66659570481</v>
+        <v>23039.20996089021</v>
       </c>
       <c r="F4" t="n">
-        <v>20264.66659570483</v>
+        <v>23039.20996089023</v>
       </c>
       <c r="G4" t="n">
-        <v>20264.66659570482</v>
+        <v>23039.20996089022</v>
       </c>
       <c r="H4" t="n">
-        <v>20264.66659570482</v>
+        <v>23039.20996089021</v>
       </c>
       <c r="I4" t="n">
-        <v>20264.66659570481</v>
+        <v>23039.20996089021</v>
       </c>
       <c r="J4" t="n">
-        <v>20264.66659570479</v>
+        <v>23039.20996089022</v>
       </c>
       <c r="K4" t="n">
-        <v>38429.28910990135</v>
+        <v>41203.83247508667</v>
       </c>
       <c r="L4" t="n">
-        <v>42683.45383702529</v>
+        <v>45457.9972022107</v>
       </c>
       <c r="M4" t="n">
-        <v>42683.4538370253</v>
+        <v>45457.99720221068</v>
       </c>
       <c r="N4" t="n">
-        <v>42683.45383702531</v>
+        <v>45457.99720221069</v>
       </c>
       <c r="O4" t="n">
-        <v>42683.4538370253</v>
+        <v>45457.99720221067</v>
       </c>
       <c r="P4" t="n">
-        <v>42683.45383702529</v>
+        <v>45457.9972022107</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-261357.4297931948</v>
+        <v>-264804.8793641909</v>
       </c>
       <c r="C6" t="n">
-        <v>328610.4494213496</v>
+        <v>325162.9998503536</v>
       </c>
       <c r="D6" t="n">
-        <v>328610.4494213498</v>
+        <v>325162.9998503535</v>
       </c>
       <c r="E6" t="n">
-        <v>-89971.34538852503</v>
+        <v>-92843.34787968259</v>
       </c>
       <c r="F6" t="n">
-        <v>435188.6910883709</v>
+        <v>432316.6885972132</v>
       </c>
       <c r="G6" t="n">
-        <v>435188.6910883712</v>
+        <v>432316.6885972135</v>
       </c>
       <c r="H6" t="n">
-        <v>435188.6910883713</v>
+        <v>432316.6885972134</v>
       </c>
       <c r="I6" t="n">
-        <v>435188.6910883713</v>
+        <v>432316.6885972138</v>
       </c>
       <c r="J6" t="n">
-        <v>258765.4718957779</v>
+        <v>255893.4694046199</v>
       </c>
       <c r="K6" t="n">
-        <v>390330.8893404088</v>
+        <v>387537.8522372891</v>
       </c>
       <c r="L6" t="n">
-        <v>423987.7724470813</v>
+        <v>421213.2290818947</v>
       </c>
       <c r="M6" t="n">
-        <v>299529.6640141109</v>
+        <v>296755.1206489252</v>
       </c>
       <c r="N6" t="n">
-        <v>434330.6792479478</v>
+        <v>431556.1358827617</v>
       </c>
       <c r="O6" t="n">
-        <v>434330.6792479476</v>
+        <v>431556.1358827621</v>
       </c>
       <c r="P6" t="n">
-        <v>390168.0739451023</v>
+        <v>387393.5305799162</v>
       </c>
     </row>
   </sheetData>
@@ -26704,22 +26704,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
@@ -26738,22 +26738,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26765,13 +26765,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108384</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285568</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>144.4751686438914</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>117.2051321990587</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,13 +27585,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>104.4281152314573</v>
+        <v>53.83928077610715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>128.0571403890125</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>303.6383668238969</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082698</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855686</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-2.108000729802126e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>499.1748421909896</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>427.332097717719</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35963,22 +35963,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>166.4134876341674</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053976</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36449,13 +36449,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
@@ -36528,10 +36528,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187475</v>
@@ -36598,7 +36598,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502078</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>361.0509964599028</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>358.7956721244938</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412238</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084853</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.4289566004316</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>236.1480887321383</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>674.475064263752</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045736</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,13 +37868,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38020,7 +38020,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38096,25 +38096,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>555.2356492667888</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
